--- a/images/IntroExcelSampleWorkbook.xlsx
+++ b/images/IntroExcelSampleWorkbook.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\UI Library\Liaison Work\Library Instruction\Library Workshops\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\GitHub\Git\intro-excel\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="7665" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Charts" sheetId="6" r:id="rId2"/>
     <sheet name="Tricks" sheetId="7" r:id="rId3"/>
+    <sheet name="CondFormat" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$10</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="20">
   <si>
     <t>Pennsylvania</t>
   </si>
@@ -127,7 +128,63 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -429,7 +486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -851,7 +908,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,4 +1131,235 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>850</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
+        <f>SUM(C2:D2)</f>
+        <v>1350</v>
+      </c>
+      <c r="F2" s="2">
+        <v>42373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>950</v>
+      </c>
+      <c r="D3">
+        <v>475</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="0">SUM(C3:D3)</f>
+        <v>1425</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <v>695</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>995</v>
+      </c>
+      <c r="F4" s="2">
+        <v>41672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>700</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="F5" s="2">
+        <v>40763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6">
+        <v>450</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1450</v>
+      </c>
+      <c r="F6" s="2">
+        <v>38721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>1200</v>
+      </c>
+      <c r="D7">
+        <v>900</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="F7" s="2">
+        <v>36623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>250</v>
+      </c>
+      <c r="D8">
+        <v>575</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>825</v>
+      </c>
+      <c r="F8" s="2">
+        <v>36327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>325</v>
+      </c>
+      <c r="D9">
+        <v>450</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>775</v>
+      </c>
+      <c r="F9" s="2">
+        <v>42265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="F10" s="2">
+        <v>41672</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/images/IntroExcelSampleWorkbook.xlsx
+++ b/images/IntroExcelSampleWorkbook.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="7665" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="7665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Charts" sheetId="6" r:id="rId2"/>
-    <sheet name="Tricks" sheetId="7" r:id="rId3"/>
+    <sheet name="Tips" sheetId="7" r:id="rId3"/>
     <sheet name="CondFormat" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -128,63 +128,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -907,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,7 +1081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/images/IntroExcelSampleWorkbook.xlsx
+++ b/images/IntroExcelSampleWorkbook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="7665" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,6 +91,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="mm/dd/yy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,10 +123,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,9 +436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -621,16 +625,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="10.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -640,16 +643,16 @@
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -660,17 +663,17 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>850</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>500</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <f>SUM(C2:D2)</f>
         <v>1350</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>42373</v>
       </c>
     </row>
@@ -681,17 +684,17 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>950</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>475</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <f t="shared" ref="E3:E10" si="0">SUM(C3:D3)</f>
         <v>1425</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>43019</v>
       </c>
     </row>
@@ -702,17 +705,17 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>300</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>695</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>995</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>41672</v>
       </c>
     </row>
@@ -723,17 +726,17 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>400</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>700</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>40763</v>
       </c>
     </row>
@@ -744,17 +747,17 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>1000</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>450</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>38721</v>
       </c>
     </row>
@@ -765,17 +768,17 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>1200</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>900</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>36623</v>
       </c>
     </row>
@@ -786,17 +789,17 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>250</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>575</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>825</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>36327</v>
       </c>
     </row>
@@ -807,17 +810,17 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>325</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>450</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>775</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>42265</v>
       </c>
     </row>
@@ -828,22 +831,23 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>1000</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>1000</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>41672</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -851,16 +855,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -879,7 +881,7 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -900,7 +902,7 @@
         <f>SUM(C2:D2)</f>
         <v>1350</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>42373</v>
       </c>
     </row>
@@ -921,7 +923,7 @@
         <f t="shared" ref="E3:E10" si="0">SUM(C3:D3)</f>
         <v>1425</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>43019</v>
       </c>
     </row>
@@ -942,7 +944,7 @@
         <f t="shared" si="0"/>
         <v>995</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>41672</v>
       </c>
     </row>
@@ -963,7 +965,7 @@
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>40763</v>
       </c>
     </row>
@@ -984,7 +986,7 @@
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>38721</v>
       </c>
     </row>
@@ -1005,7 +1007,7 @@
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>36623</v>
       </c>
     </row>
@@ -1026,7 +1028,7 @@
         <f t="shared" si="0"/>
         <v>825</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>36327</v>
       </c>
     </row>
@@ -1047,7 +1049,7 @@
         <f t="shared" si="0"/>
         <v>775</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>42265</v>
       </c>
     </row>
@@ -1068,7 +1070,7 @@
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>41672</v>
       </c>
     </row>
@@ -1081,16 +1083,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1109,7 +1109,7 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
         <f>SUM(C2:D2)</f>
         <v>1350</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>42373</v>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
         <f t="shared" ref="E3:E10" si="0">SUM(C3:D3)</f>
         <v>1425</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>43019</v>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
         <f t="shared" si="0"/>
         <v>995</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>41672</v>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>40763</v>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>38721</v>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>36623</v>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
         <f t="shared" si="0"/>
         <v>825</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>36327</v>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
         <f t="shared" si="0"/>
         <v>775</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>42265</v>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>41672</v>
       </c>
     </row>

--- a/images/IntroExcelSampleWorkbook.xlsx
+++ b/images/IntroExcelSampleWorkbook.xlsx
@@ -36,9 +36,6 @@
     <t>Saleperson</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
     <t>Hire Date</t>
   </si>
   <si>
@@ -84,7 +81,10 @@
     <t>delaware</t>
   </si>
   <si>
-    <t>state</t>
+    <t>state office</t>
+  </si>
+  <si>
+    <t>State Office</t>
   </si>
 </sst>
 </file>
@@ -92,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -128,8 +128,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,27 +447,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>850</v>
@@ -481,10 +481,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>950</v>
@@ -498,10 +498,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>300</v>
@@ -515,10 +515,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>400</v>
@@ -532,10 +532,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>1000</v>
@@ -549,10 +549,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>1200</v>
@@ -566,10 +566,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>250</v>
@@ -583,10 +583,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>325</v>
@@ -600,10 +600,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>1000</v>
@@ -638,22 +638,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3">
         <v>850</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>950</v>
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3">
         <v>300</v>
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3">
         <v>400</v>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3">
         <v>1000</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3">
         <v>1200</v>
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3">
         <v>250</v>
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3">
         <v>325</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3">
         <v>1000</v>
@@ -867,22 +867,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>850</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>950</v>
@@ -932,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>300</v>
@@ -953,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>400</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>1000</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>1200</v>
@@ -1016,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>250</v>
@@ -1037,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>325</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>1000</v>
@@ -1095,22 +1095,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>850</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>950</v>
@@ -1160,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>300</v>
@@ -1181,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>400</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>1000</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>1200</v>
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>250</v>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>325</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>1000</v>
